--- a/test1.xlsx
+++ b/test1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学习\xl-test-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学习\xl-test-2\git-xl-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FED097-0963-4EB9-9AD1-BE073C719848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4928BD6C-A863-4A64-9380-BAD589BBF317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -344,10 +344,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -360,6 +360,14 @@
         <v>222</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test1.xlsx
+++ b/test1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学习\xl-test-2\git-xl-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4928BD6C-A863-4A64-9380-BAD589BBF317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9597DD-CB99-47E4-A1FB-74F03570F399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -346,7 +347,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -372,4 +373,28 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60DCA804-B8DF-48A6-A8C4-484BE070BFAC}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>123123</v>
+      </c>
+      <c r="B1">
+        <v>123123</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>